--- a/BackTest/2019-10-20 BackTest OMG.xlsx
+++ b/BackTest/2019-10-20 BackTest OMG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>23</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>56.52173913043478</v>
+      </c>
       <c r="L12" t="n">
         <v>925.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>26</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>36</v>
+      </c>
       <c r="L13" t="n">
         <v>926.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>29</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>18.51851851851852</v>
+      </c>
       <c r="L14" t="n">
         <v>927.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>33</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>3.225806451612903</v>
+      </c>
       <c r="L15" t="n">
         <v>927.2</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>37</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>11.76470588235294</v>
+      </c>
       <c r="L16" t="n">
         <v>927.7</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>37</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-15.38461538461539</v>
+      </c>
       <c r="L17" t="n">
         <v>928.1</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>41</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-40.74074074074074</v>
+      </c>
       <c r="L18" t="n">
         <v>927.3</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>42</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-52</v>
+      </c>
       <c r="L19" t="n">
         <v>926.3</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>42</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-40</v>
+      </c>
       <c r="L20" t="n">
         <v>925</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>42</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-47.36842105263158</v>
+      </c>
       <c r="L21" t="n">
         <v>924.2</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>44</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-22.22222222222222</v>
+      </c>
       <c r="L22" t="n">
         <v>923.5</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>44</v>
       </c>
       <c r="K23" t="n">
-        <v>13.63636363636363</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L23" t="n">
         <v>923.1</v>
@@ -1466,7 +1488,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="n">
-        <v>13.63636363636363</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>923.1</v>
@@ -1515,7 +1537,7 @@
         <v>48</v>
       </c>
       <c r="K25" t="n">
-        <v>4.347826086956522</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L25" t="n">
         <v>923.2</v>
@@ -1564,7 +1586,7 @@
         <v>48</v>
       </c>
       <c r="K26" t="n">
-        <v>4.347826086956522</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L26" t="n">
         <v>922.9</v>
@@ -1662,7 +1684,7 @@
         <v>49</v>
       </c>
       <c r="K28" t="n">
-        <v>-21.05263157894737</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L28" t="n">
         <v>922.5</v>
@@ -1711,7 +1733,7 @@
         <v>55</v>
       </c>
       <c r="K29" t="n">
-        <v>-41.46341463414634</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L29" t="n">
         <v>921.8</v>
@@ -1760,7 +1782,7 @@
         <v>61</v>
       </c>
       <c r="K30" t="n">
-        <v>-31.81818181818182</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L30" t="n">
         <v>921.7</v>
@@ -1809,7 +1831,7 @@
         <v>64</v>
       </c>
       <c r="K31" t="n">
-        <v>-28.57142857142857</v>
+        <v>-30</v>
       </c>
       <c r="L31" t="n">
         <v>921.3</v>
@@ -1860,7 +1882,7 @@
         <v>64</v>
       </c>
       <c r="K32" t="n">
-        <v>-31.70731707317073</v>
+        <v>-30</v>
       </c>
       <c r="L32" t="n">
         <v>920.7</v>
@@ -1911,7 +1933,7 @@
         <v>65</v>
       </c>
       <c r="K33" t="n">
-        <v>-23.07692307692308</v>
+        <v>-30</v>
       </c>
       <c r="L33" t="n">
         <v>920.2</v>
@@ -1962,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="K34" t="n">
-        <v>-16.66666666666666</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L34" t="n">
         <v>919.6</v>
@@ -2013,7 +2035,7 @@
         <v>65</v>
       </c>
       <c r="K35" t="n">
-        <v>-6.25</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L35" t="n">
         <v>919.3</v>
